--- a/April-Twitter-Corona.xlsx
+++ b/April-Twitter-Corona.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>2020-4-1</t>
   </si>
@@ -50,6 +50,144 @@
   </si>
   <si>
     <t>#QuarantinedQueers: NED</t>
+  </si>
+  <si>
+    <t>2020-4-6</t>
+  </si>
+  <si>
+    <t>2020-4-7</t>
+  </si>
+  <si>
+    <t>2020-4-8</t>
+  </si>
+  <si>
+    <t>#lockdownextension: 59576</t>
+  </si>
+  <si>
+    <t>#PandemicIn5Words: 16663</t>
+  </si>
+  <si>
+    <t>2020-4-9</t>
+  </si>
+  <si>
+    <t>2020-4-10</t>
+  </si>
+  <si>
+    <t>#LockdownExtended: 107785</t>
+  </si>
+  <si>
+    <t>#LockdownHouseParty: 27829</t>
+  </si>
+  <si>
+    <t>2020-4-11</t>
+  </si>
+  <si>
+    <t>#trumpcovidfails: 28615</t>
+  </si>
+  <si>
+    <t>#COVID__19: 115984</t>
+  </si>
+  <si>
+    <t>#SweetHomeStayAtHomeAlabama: NED</t>
+  </si>
+  <si>
+    <t>2020-4-12</t>
+  </si>
+  <si>
+    <t>2020-4-13</t>
+  </si>
+  <si>
+    <t>#QuarantineATVShow: NED</t>
+  </si>
+  <si>
+    <t>#1DOnlineConcertStayAtHome: 283136</t>
+  </si>
+  <si>
+    <t>2020-4-14</t>
+  </si>
+  <si>
+    <t>2020-4-15</t>
+  </si>
+  <si>
+    <t>COVID-1: 1442293</t>
+  </si>
+  <si>
+    <t>2020-4-16</t>
+  </si>
+  <si>
+    <t>#coronawillendsoon: 25557</t>
+  </si>
+  <si>
+    <t>2020-4-17</t>
+  </si>
+  <si>
+    <t>#HowQuarantineHasChangedMe: NED</t>
+  </si>
+  <si>
+    <t>2020-4-18</t>
+  </si>
+  <si>
+    <t>#quarantinewithfgo: NED</t>
+  </si>
+  <si>
+    <t>2020-4-19</t>
+  </si>
+  <si>
+    <t>#day24oflockdown: 14745</t>
+  </si>
+  <si>
+    <t>2020-4-20</t>
+  </si>
+  <si>
+    <t>#TrumpCoronavirusTestFailure: 38598</t>
+  </si>
+  <si>
+    <t>2020-4-21</t>
+  </si>
+  <si>
+    <t>2020-4-22</t>
+  </si>
+  <si>
+    <t>2020-4-23</t>
+  </si>
+  <si>
+    <t>#lockdownextension: 68653</t>
+  </si>
+  <si>
+    <t>2020-4-24</t>
+  </si>
+  <si>
+    <t>2020-4-25</t>
+  </si>
+  <si>
+    <t>2020-4-26</t>
+  </si>
+  <si>
+    <t>#covidsafe: 12258</t>
+  </si>
+  <si>
+    <t>2020-4-27</t>
+  </si>
+  <si>
+    <t>#QuarantineABook: NED</t>
+  </si>
+  <si>
+    <t>#LockdownEnd: 47208</t>
+  </si>
+  <si>
+    <t>2020-4-28</t>
+  </si>
+  <si>
+    <t>2020-4-29</t>
+  </si>
+  <si>
+    <t>#ExtendTheLockdown: 46117</t>
+  </si>
+  <si>
+    <t>2020-4-30</t>
+  </si>
+  <si>
+    <t>#COVID__19: 89668</t>
   </si>
 </sst>
 </file>
@@ -381,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -448,6 +586,269 @@
         <v>11</v>
       </c>
     </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>76239</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>135614</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>144599</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>283136</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>1442293</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>25557</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19">
+        <v>14745</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <v>38598</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23">
+        <v>68653</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26">
+        <v>12258</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27">
+        <v>47208</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29">
+        <v>46117</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30">
+        <v>89668</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
